--- a/Labs/Lab01-Identity/Lab1Rubric-Identity.xlsx
+++ b/Labs/Lab01-Identity/Lab1Rubric-Identity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab02-Identity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS296N-CourseMaterials/Labs/Lab01-Identity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA85F55-3CBE-494F-B67E-6E181CD9CB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA7E5BE8-6523-4843-B2BC-772903A75E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4080" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-15060" yWindow="500" windowWidth="13280" windowHeight="19360" activeTab="2" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
     <sheet name="Grading" sheetId="1" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
+    <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Part 1: Textbook Tutorial</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Part 2: Add Identity to a Web Site</t>
   </si>
   <si>
-    <t>Lab 2 Rubric - Identity</t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Runs on Azure without crashing</t>
   </si>
   <si>
-    <t>Identity tables added to database</t>
-  </si>
-  <si>
     <t>Migration added</t>
   </si>
   <si>
@@ -80,10 +74,34 @@
     <t>Did it all</t>
   </si>
   <si>
-    <t>Inspected code</t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Lab 1 Rubric - Identity</t>
+  </si>
+  <si>
+    <t>Studied it</t>
+  </si>
+  <si>
+    <t>Ran &amp; studied</t>
+  </si>
+  <si>
+    <t>Identity code added</t>
+  </si>
+  <si>
+    <t>Identity tables in database</t>
+  </si>
+  <si>
+    <t>Lab 1 Score - Identity</t>
+  </si>
+  <si>
+    <t>PR sent</t>
+  </si>
+  <si>
+    <t>Lab 1 Grading for 2024 - Identity</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -166,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,158 +480,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5EE8C-E354-4001-86CD-B2CD9C47B920}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <f>SUM(D6:D15)</f>
+      <c r="D20">
+        <f>SUM(D7:D18)</f>
         <v>50</v>
       </c>
-      <c r="E17">
-        <f>SUM(E6:E15)</f>
+      <c r="E20">
+        <f>SUM(E7:E18)</f>
         <v>50</v>
       </c>
     </row>
@@ -624,55 +672,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E17"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -684,98 +732,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <f>SUM(D6:D15)</f>
+      <c r="D19">
+        <f>SUM(D6:D17)</f>
         <v>50</v>
       </c>
-      <c r="E17">
-        <f>SUM(E6:E15)</f>
+      <c r="E19">
+        <f>SUM(E6:E17)</f>
         <v>50</v>
       </c>
     </row>
@@ -786,147 +856,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213C63AE-B6B2-4F88-9CFD-7FBB04B4737E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
       <c r="D16">
-        <f>SUM(D6:D14)</f>
+        <f>SUM(D5:D14)</f>
         <v>50</v>
       </c>
       <c r="E16">
-        <f>SUM(E6:E14)</f>
+        <f>SUM(E5:E14)</f>
         <v>50</v>
       </c>
     </row>

--- a/Labs/Lab01-Identity/Lab1Rubric-Identity.xlsx
+++ b/Labs/Lab01-Identity/Lab1Rubric-Identity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS296N-CourseMaterials/Labs/Lab01-Identity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab01-Identity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA7E5BE8-6523-4843-B2BC-772903A75E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FDB96D-CA7C-4B08-9E63-1359AE068906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15060" yWindow="500" windowWidth="13280" windowHeight="19360" activeTab="2" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-23076" yWindow="6180" windowWidth="12000" windowHeight="10992" activeTab="2" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Part 1: Textbook Tutorial</t>
   </si>
@@ -102,13 +103,19 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,11 +176,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,22 +503,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5EE8C-E354-4001-86CD-B2CD9C47B920}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -505,12 +526,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -518,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -526,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -534,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -548,12 +569,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -564,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -575,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -586,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -597,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -608,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -619,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -630,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -641,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -652,7 +673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -674,22 +695,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -697,12 +718,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -710,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -718,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -732,12 +753,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -748,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -759,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -770,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -781,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -792,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -803,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -814,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -825,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -836,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -856,166 +877,192 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213C63AE-B6B2-4F88-9CFD-7FBB04B4737E}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="0.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <f>SUM(D5:D14)</f>
+      <c r="D18">
+        <f>SUM(D7:D16)</f>
         <v>50</v>
       </c>
-      <c r="E16">
-        <f>SUM(E5:E14)</f>
+      <c r="E18">
+        <f>SUM(E7:E16)</f>
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>